--- a/xls_config/xlsx/dugeno.xlsx
+++ b/xls_config/xlsx/dugeno.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="89">
   <si>
     <t>id</t>
   </si>
@@ -27,6 +27,12 @@
     <t>map_name</t>
   </si>
   <si>
+    <t>enterjuben_liststr</t>
+  </si>
+  <si>
+    <t>fightwinjuben_liststr</t>
+  </si>
+  <si>
     <t>monster_liststr</t>
   </si>
   <si>
@@ -60,6 +66,12 @@
     <t>地图名称</t>
   </si>
   <si>
+    <t>进场剧本id</t>
+  </si>
+  <si>
+    <t>某场胜利后的剧本id</t>
+  </si>
+  <si>
     <t>怪物列表</t>
   </si>
   <si>
@@ -90,10 +102,16 @@
     <t>黑风洞一层</t>
   </si>
   <si>
-    <t>11321;11320</t>
-  </si>
-  <si>
-    <t>252:1|250:9;251:1|250:9</t>
+    <t>440,448</t>
+  </si>
+  <si>
+    <t>;;453;</t>
+  </si>
+  <si>
+    <t>1300;11321;11320;1300</t>
+  </si>
+  <si>
+    <t>;401:1|402:4|403:5;400:1|402:5|403:4;</t>
   </si>
   <si>
     <t>黑风洞</t>
@@ -129,7 +147,7 @@
         <rFont val="Arial"/>
         <charset val="0"/>
       </rPr>
-      <t>#P;#</t>
+      <t>#P;</t>
     </r>
     <r>
       <rPr>
@@ -137,7 +155,7 @@
         <rFont val="宋体"/>
         <charset val="0"/>
       </rPr>
-      <t>找二当家</t>
+      <t>找#二当家</t>
     </r>
     <r>
       <rPr>
@@ -145,7 +163,7 @@
         <rFont val="Arial"/>
         <charset val="0"/>
       </rPr>
-      <t>#;#</t>
+      <t>#;</t>
     </r>
     <r>
       <rPr>
@@ -153,7 +171,7 @@
         <rFont val="宋体"/>
         <charset val="0"/>
       </rPr>
-      <t>找大当家</t>
+      <t>找#大当家</t>
     </r>
     <r>
       <rPr>
@@ -200,12 +218,23 @@
     <t>黑风洞二层</t>
   </si>
   <si>
-    <t>11322;11323</t>
-  </si>
-  <si>
-    <t>277:5;278:5</t>
-  </si>
-  <si>
+    <t>;;460;</t>
+  </si>
+  <si>
+    <t>1310;11322;11323;1310</t>
+  </si>
+  <si>
+    <t>;405:5;406:5;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>找</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -220,7 +249,7 @@
         <rFont val="宋体"/>
         <charset val="0"/>
       </rPr>
-      <t>找蒙面人</t>
+      <t>蒙面人</t>
     </r>
     <r>
       <rPr>
@@ -228,7 +257,7 @@
         <rFont val="Arial"/>
         <charset val="0"/>
       </rPr>
-      <t>#;#</t>
+      <t>#;</t>
     </r>
     <r>
       <rPr>
@@ -236,7 +265,7 @@
         <rFont val="宋体"/>
         <charset val="0"/>
       </rPr>
-      <t>找土宸</t>
+      <t>找#土宸</t>
     </r>
     <r>
       <rPr>
@@ -252,16 +281,24 @@
         <rFont val="宋体"/>
         <charset val="0"/>
       </rPr>
-      <t>#找木岚#;#找蒙面人#</t>
+      <t>找#木岚#;找#蒙面人#</t>
     </r>
   </si>
   <si>
     <t>黑风洞三层</t>
   </si>
   <si>
-    <t>279:2</t>
-  </si>
-  <si>
+    <t>407:1|408:1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>找</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -276,7 +313,7 @@
         <rFont val="宋体"/>
         <charset val="0"/>
       </rPr>
-      <t>找妖狼王</t>
+      <t>妖狼王</t>
     </r>
     <r>
       <rPr>
@@ -284,8 +321,165 @@
         <rFont val="Arial"/>
         <charset val="0"/>
       </rPr>
+      <t>#;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>找#妖狼王</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
       <t>#</t>
     </r>
+  </si>
+  <si>
+    <t>兰若寺后山1</t>
+  </si>
+  <si>
+    <t>兰若寺后山</t>
+  </si>
+  <si>
+    <t>462,463</t>
+  </si>
+  <si>
+    <t>443,464,465,466,467,468,469</t>
+  </si>
+  <si>
+    <t>409:1|410:9</t>
+  </si>
+  <si>
+    <t>兰若寺</t>
+  </si>
+  <si>
+    <t>找#小青#;找#小青#</t>
+  </si>
+  <si>
+    <t>兰若寺1</t>
+  </si>
+  <si>
+    <t>11326;11327</t>
+  </si>
+  <si>
+    <t>;;</t>
+  </si>
+  <si>
+    <t>找#小倩#;找#赤霞真人#</t>
+  </si>
+  <si>
+    <t>兰若寺后山2</t>
+  </si>
+  <si>
+    <t>482,483,484</t>
+  </si>
+  <si>
+    <t>11325</t>
+  </si>
+  <si>
+    <t>411:1|412:9</t>
+  </si>
+  <si>
+    <t>找#姥姥#;找#姥姥#</t>
+  </si>
+  <si>
+    <t>兰若寺2</t>
+  </si>
+  <si>
+    <t>485,486</t>
+  </si>
+  <si>
+    <t>489,490,491,492</t>
+  </si>
+  <si>
+    <t>11336</t>
+  </si>
+  <si>
+    <t>413:1|414:8|415:1</t>
+  </si>
+  <si>
+    <t>找#黑山老妖#;找#黑山老妖#</t>
+  </si>
+  <si>
+    <t>烈火涧1</t>
+  </si>
+  <si>
+    <t>烈火涧</t>
+  </si>
+  <si>
+    <t>446,493</t>
+  </si>
+  <si>
+    <t>1340;</t>
+  </si>
+  <si>
+    <t>找#P土地公公#P</t>
+  </si>
+  <si>
+    <t>烈火涧西面</t>
+  </si>
+  <si>
+    <t>;505,506,507</t>
+  </si>
+  <si>
+    <t>11328;11332</t>
+  </si>
+  <si>
+    <t>;416:1</t>
+  </si>
+  <si>
+    <t>找#玉石琵琶精#;找#上古雷怪#</t>
+  </si>
+  <si>
+    <t>烈火涧北面</t>
+  </si>
+  <si>
+    <t>;513,514</t>
+  </si>
+  <si>
+    <t>11329;11333</t>
+  </si>
+  <si>
+    <t>;417:1</t>
+  </si>
+  <si>
+    <t>找#玉石琵琶精#;找#上古云兽#</t>
+  </si>
+  <si>
+    <t>烈火涧东面</t>
+  </si>
+  <si>
+    <t>;517</t>
+  </si>
+  <si>
+    <t>11331;11334</t>
+  </si>
+  <si>
+    <t>;418:1</t>
+  </si>
+  <si>
+    <t>找#玉石琵琶精#;找#上古雨兽#</t>
+  </si>
+  <si>
+    <t>烈火涧2</t>
+  </si>
+  <si>
+    <t>;447;521</t>
+  </si>
+  <si>
+    <t>11330;11335;11330;1340</t>
+  </si>
+  <si>
+    <t>;419:1|420:4|421:5;422:1|423:1</t>
+  </si>
+  <si>
+    <t>找#玉石琵琶精#;找#赤焰兽#;找#玉石琵琶精#;找#P土地公公#P</t>
   </si>
 </sst>
 </file>
@@ -293,12 +487,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,6 +501,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="9.8"/>
+      <color rgb="FF660E7A"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="0"/>
@@ -317,8 +518,91 @@
       <charset val="0"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,6 +616,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -339,127 +661,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -470,6 +671,120 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -482,19 +797,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,151 +851,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,17 +865,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,8 +894,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -703,35 +915,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -753,10 +947,17 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -769,10 +970,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -781,146 +982,150 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1269,21 +1474,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="4" max="4" width="37.375" customWidth="1"/>
-    <col min="5" max="6" width="28.25" customWidth="1"/>
-    <col min="7" max="7" width="25.75" customWidth="1"/>
+    <col min="4" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="37.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="28.25" customWidth="1"/>
+    <col min="9" max="9" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1293,16 +1500,16 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
@@ -1320,155 +1527,542 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
         <v>17</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H3">
-        <v>3</v>
-      </c>
-      <c r="I3" s="4" t="s">
+      <c r="C3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="2">
-        <v>1000</v>
-      </c>
-      <c r="K3">
-        <v>100</v>
-      </c>
-      <c r="L3">
-        <v>100</v>
+      <c r="E3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="3">
+        <v>5000</v>
+      </c>
+      <c r="M3">
+        <v>136</v>
+      </c>
+      <c r="N3">
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-      <c r="I4" s="4" t="s">
+      <c r="B4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="2">
-        <v>1000</v>
-      </c>
-      <c r="K4">
-        <v>100</v>
-      </c>
-      <c r="L4">
-        <v>100</v>
+      <c r="I4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="3">
+        <v>5000</v>
+      </c>
+      <c r="M4">
+        <v>136</v>
+      </c>
+      <c r="N4">
+        <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5">
+        <v>1311</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1311</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="I5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="3">
         <v>2</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2">
-        <v>1000</v>
-      </c>
-      <c r="K5">
-        <v>100</v>
-      </c>
-      <c r="L5">
-        <v>100</v>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3">
+        <v>5000</v>
+      </c>
+      <c r="M5">
+        <v>136</v>
+      </c>
+      <c r="N5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="5">
+        <v>11324</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" s="3">
+        <v>5000</v>
+      </c>
+      <c r="M6">
+        <v>136</v>
+      </c>
+      <c r="N6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" s="3">
+        <v>5000</v>
+      </c>
+      <c r="M7">
+        <v>136</v>
+      </c>
+      <c r="N7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8" t="s">
+        <v>58</v>
+      </c>
+      <c r="L8" s="3">
+        <v>5000</v>
+      </c>
+      <c r="M8">
+        <v>136</v>
+      </c>
+      <c r="N8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="L9" s="3">
+        <v>5000</v>
+      </c>
+      <c r="M9">
+        <v>136</v>
+      </c>
+      <c r="N9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10" t="s">
+        <v>69</v>
+      </c>
+      <c r="L10" s="3">
+        <v>5000</v>
+      </c>
+      <c r="M10">
+        <v>136</v>
+      </c>
+      <c r="N10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11" t="s">
+        <v>74</v>
+      </c>
+      <c r="L11" s="3">
+        <v>5000</v>
+      </c>
+      <c r="M11">
+        <v>136</v>
+      </c>
+      <c r="N11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" t="s">
+        <v>78</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12" t="s">
+        <v>79</v>
+      </c>
+      <c r="L12" s="3">
+        <v>5000</v>
+      </c>
+      <c r="M12">
+        <v>136</v>
+      </c>
+      <c r="N12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="K13" t="s">
+        <v>84</v>
+      </c>
+      <c r="L13" s="3">
+        <v>5000</v>
+      </c>
+      <c r="M13">
+        <v>136</v>
+      </c>
+      <c r="N13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" t="s">
+        <v>88</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3">
+        <v>5000</v>
+      </c>
+      <c r="M14">
+        <v>136</v>
+      </c>
+      <c r="N14">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/xls_config/xlsx/dugeno.xlsx
+++ b/xls_config/xlsx/dugeno.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860"/>
+    <workbookView windowWidth="20730" windowHeight="8160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -431,7 +431,7 @@
     <t>11328;11332</t>
   </si>
   <si>
-    <t>;416:1</t>
+    <t>;416:10</t>
   </si>
   <si>
     <t>找#玉石琵琶精#;找#上古雷怪#</t>
@@ -446,7 +446,7 @@
     <t>11329;11333</t>
   </si>
   <si>
-    <t>;417:1</t>
+    <t>;417:10</t>
   </si>
   <si>
     <t>找#玉石琵琶精#;找#上古云兽#</t>
@@ -461,7 +461,7 @@
     <t>11331;11334</t>
   </si>
   <si>
-    <t>;418:1</t>
+    <t>;418:10</t>
   </si>
   <si>
     <t>找#玉石琵琶精#;找#上古雨兽#</t>
@@ -487,10 +487,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -516,6 +516,90 @@
       <sz val="10"/>
       <name val="宋体"/>
       <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -526,45 +610,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -578,31 +641,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -615,52 +661,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -671,6 +671,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -683,7 +749,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,7 +791,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,19 +803,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -731,7 +821,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,115 +851,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,71 +862,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -949,7 +884,48 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -958,7 +934,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -970,145 +970,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1477,7 +1477,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
